--- a/web/Statistics_of_@elenabravoarche.xlsx
+++ b/web/Statistics_of_@elenabravoarche.xlsx
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>762.8181818181819</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30812</v>
+        <v>30820</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +423,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>972</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2080</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>83.95640326975477</v>
+        <v>83.97820163487738</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>8391</v>
+        <v>8393</v>
       </c>
     </row>
   </sheetData>

--- a/web/Statistics_of_@elenabravoarche.xlsx
+++ b/web/Statistics_of_@elenabravoarche.xlsx
@@ -407,7 +407,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30820</v>
+        <v>30821</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -439,7 +439,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>83.97820163487738</v>
+        <v>83.98092643051771</v>
       </c>
     </row>
     <row r="9" spans="1:2">
